--- a/contents/cms/file_template/skuList-template.xlsx
+++ b/contents/cms/file_template/skuList-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="6555" windowWidth="25380" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="sku" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>sku</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -28,6 +28,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>clientSize</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -46,22 +63,6 @@
   <si>
     <t>clientPriceCost</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceMsrp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceRetail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TmallSalePrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JdSalePrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,28 +459,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25">
+    <row r="1" spans="1:13" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,10 +490,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -504,10 +505,10 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -515,6 +516,9 @@
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/contents/cms/file_template/skuList-template.xlsx
+++ b/contents/cms/file_template/skuList-template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>sku</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -63,6 +63,56 @@
   <si>
     <t>clientPriceCost</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户原始SKU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>主类目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>款号</t>
+  </si>
+  <si>
+    <t>商品编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色/口味/香型等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户原始Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换后Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户建议售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户指导价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -111,7 +161,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,10 +211,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,9 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -521,6 +581,47 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contents/cms/file_template/skuList-template.xlsx
+++ b/contents/cms/file_template/skuList-template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="6555" windowWidth="25380" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>sku</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -112,14 +112,22 @@
   </si>
   <si>
     <t>客户成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -307,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -341,6 +350,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,14 +526,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -540,7 +548,7 @@
     <col min="13" max="13" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +588,11 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -620,6 +631,9 @@
       </c>
       <c r="M2" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
